--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -210,36 +210,36 @@
     <t>Organizations Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Separate eac entry in repeating fields, using ";" and ensure there are 2 spaces after the ";" see 
+    <t>1 - High</t>
+  </si>
+  <si>
+    <t>3 - Low</t>
+  </si>
+  <si>
+    <t>2 - Medium</t>
+  </si>
+  <si>
+    <t>In all places where there is a substance it should be in the following format  "&lt;code@displayName&gt; (ID: &lt;code@code&gt;)" where the &lt; &gt; is replaced with the content</t>
+  </si>
+  <si>
+    <t>Still not correct on my end</t>
+  </si>
+  <si>
+    <t>Add a space before the / in the value part of the Date of Initial Approval/Revision:</t>
+  </si>
+  <si>
+    <t>Now we have 2 different look and feels (the red arrow in the SPM and the scailing bar is different), I like the CPID scale bar better, but missing the collapse/expand red arrow. Please add arrow then copy the code to the SPM and deploy to dev.2</t>
+  </si>
+  <si>
+    <t>Bookmarks</t>
+  </si>
+  <si>
+    <t>not all hyperlinks work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate each entry in repeating fields, using ";" and ensure there are 2 spaces after the ";" see 
 Summary of Product Information/Route Of Administration
 </t>
-  </si>
-  <si>
-    <t>1 - High</t>
-  </si>
-  <si>
-    <t>3 - Low</t>
-  </si>
-  <si>
-    <t>2 - Medium</t>
-  </si>
-  <si>
-    <t>In all places where there is a substance it should be in the following format  "&lt;code@displayName&gt; (ID: &lt;code@code&gt;)" where the &lt; &gt; is replaced with the content</t>
-  </si>
-  <si>
-    <t>Still not correct on my end</t>
-  </si>
-  <si>
-    <t>Add a space before the / in the value part of the Date of Initial Approval/Revision:</t>
-  </si>
-  <si>
-    <t>Now we have 2 different look and feels (the red arrow in the SPM and the scailing bar is different), I like the CPID scale bar better, but missing the collapse/expand red arrow. Please add arrow then copy the code to the SPM and deploy to dev.2</t>
-  </si>
-  <si>
-    <t>Bookmarks</t>
-  </si>
-  <si>
-    <t>not all hyperlinks work</t>
   </si>
 </sst>
 </file>
@@ -594,9 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -662,7 +662,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -742,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -800,15 +800,15 @@
         <v>43167</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -968,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -988,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1008,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1020,7 +1020,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1029,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -1038,16 +1038,16 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
-    <sortCondition ref="B2:B26"/>
-    <sortCondition ref="C2:C26"/>
+  <sortState ref="A2:H21">
+    <sortCondition ref="B2:B21"/>
+    <sortCondition ref="C2:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1244,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1264,7 +1264,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1281,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>Priority</t>
   </si>
@@ -237,16 +237,42 @@
     <t>not all hyperlinks work</t>
   </si>
   <si>
-    <t xml:space="preserve">Separate each entry in repeating fields, using ";" and ensure there are 2 spaces after the ";" see 
-Summary of Product Information/Route Of Administration
+    <t>Also in the SPM header, the 
+Product Description -&gt; Route Of Administration for product 2 etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate each entry in repeating fields, using ";" and ensure there are 2 spaces after the ";"
 </t>
+  </si>
+  <si>
+    <r>
+      <t>The SPM still uses the old convention as an example A-105972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> (UNII: 9B1B8HD569)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary of Product Information</t>
+  </si>
+  <si>
+    <t>The displayname value is missing fro substance 212WAX8KDD?</t>
+  </si>
+  <si>
+    <t>The value correscpoding to label 10039 is incorrect it should be mapped (ignore the [1] in the xpath) to /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1]/code[1]/@displayName for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.42, and for now insert DIN: before the value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +296,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -592,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -677,7 +709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -695,6 +727,9 @@
       </c>
       <c r="F4" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
@@ -737,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -754,6 +789,9 @@
         <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1042,6 +1080,46 @@
       </c>
       <c r="F21" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8C93F-F835-4D93-9C7B-66337303DFFB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>Priority</t>
   </si>
@@ -266,6 +267,12 @@
   </si>
   <si>
     <t>The value correscpoding to label 10039 is incorrect it should be mapped (ignore the [1] in the xpath) to /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1]/code[1]/@displayName for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.42, and for now insert DIN: before the value</t>
+  </si>
+  <si>
+    <t>HyperLinks</t>
+  </si>
+  <si>
+    <t>They don’t seem to work anymore, the syntax is right since they work when I use the FDA Stylesheet but not when I use either dev.2 or CPID</t>
   </si>
 </sst>
 </file>
@@ -624,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -754,27 +761,27 @@
     </row>
     <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>64</v>
@@ -786,21 +793,18 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -812,41 +816,38 @@
         <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43167</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -858,12 +859,12 @@
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
@@ -875,15 +876,15 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>63</v>
@@ -895,15 +896,21 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43167</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>63</v>
@@ -915,15 +922,15 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>63</v>
@@ -935,15 +942,15 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="67.95" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>63</v>
@@ -955,15 +962,15 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -975,15 +982,15 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
@@ -998,12 +1005,12 @@
         <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.95" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
@@ -1012,18 +1019,18 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
@@ -1038,12 +1045,12 @@
         <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
@@ -1055,16 +1062,15 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -1073,59 +1079,80 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H21">
-    <sortCondition ref="B2:B21"/>
-    <sortCondition ref="C2:C21"/>
+  <sortState ref="A2:H24">
+    <sortCondition ref="B2:B24"/>
+    <sortCondition ref="C2:C24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8C93F-F835-4D93-9C7B-66337303DFFB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5085C68-D078-4D33-9E34-4B2D08F47654}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
   <si>
     <t>Priority</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Non-Proprietary Name of Drug Substance, should include the code and be in the following format  "&lt;code@displayName&gt; (&lt;code@code&gt;)" where the &lt; &gt; is replaced with the content</t>
-  </si>
-  <si>
-    <t>The Product Information -&gt; Product Type field is mapped to the wrong element it should be the marketing_catagory from 2.16.840.1.113883.2.20.6.27 but not sure how to encode this. &lt;templateId root="2.16.840.1.113883.2.20.6.27" extension="Biologic"/&gt;</t>
   </si>
   <si>
     <t>Complete</t>
@@ -263,16 +260,22 @@
     <t>Summary of Product Information</t>
   </si>
   <si>
-    <t>The displayname value is missing fro substance 212WAX8KDD?</t>
-  </si>
-  <si>
     <t>The value correscpoding to label 10039 is incorrect it should be mapped (ignore the [1] in the xpath) to /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1]/code[1]/@displayName for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.42, and for now insert DIN: before the value</t>
   </si>
   <si>
-    <t>HyperLinks</t>
-  </si>
-  <si>
     <t>They don’t seem to work anymore, the syntax is right since they work when I use the FDA Stylesheet but not when I use either dev.2 or CPID</t>
+  </si>
+  <si>
+    <t>We are going to restructure all occurances of the org table, please see the manually created table CPID section 2.3.S.2.1.a as a guideline, but lets chat before you make the change</t>
+  </si>
+  <si>
+    <t>The Product Information -&gt; Product Type field is mapped to the wrong element it should be the extension attribute from OID 2.16.840.1.113883.2.20.6.53 the xpath is product specific but for product 1 it is /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1]/templateId[1]</t>
+  </si>
+  <si>
+    <t>The displayname value is missing for substance 212WAX8KDD?</t>
+  </si>
+  <si>
+    <t>Content HyperLinks</t>
   </si>
 </sst>
 </file>
@@ -631,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -676,44 +679,44 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
@@ -721,7 +724,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -733,10 +736,10 @@
         <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
@@ -744,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -756,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -764,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -773,10 +776,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -784,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -804,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -816,10 +819,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -827,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -836,10 +839,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -847,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -859,12 +862,12 @@
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
@@ -876,18 +879,18 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -896,16 +899,10 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43167</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,7 +910,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -933,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -950,10 +947,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -962,38 +959,38 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1002,157 +999,37 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="67.95" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H24">
-    <sortCondition ref="B2:B24"/>
-    <sortCondition ref="C2:C24"/>
+  <sortState ref="A2:H26">
+    <sortCondition ref="B2:B26"/>
+    <sortCondition ref="C2:C26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1161,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1252,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
@@ -1272,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -1292,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -1312,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -1349,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1369,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1386,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
@@ -1406,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1425,6 +1302,152 @@
       </c>
       <c r="H12" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43167</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="67.95" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5085C68-D078-4D33-9E34-4B2D08F47654}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A983C-A3AC-4608-88F9-73C0761C34C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
   <si>
     <t>Priority</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Content HyperLinks</t>
+  </si>
+  <si>
+    <t>on hold</t>
   </si>
 </sst>
 </file>
@@ -634,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
     </row>
     <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>63</v>
@@ -836,13 +839,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -865,12 +868,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -879,15 +882,15 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
@@ -899,15 +902,15 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -919,15 +922,15 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>62</v>
@@ -939,15 +942,15 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -956,18 +959,18 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>62</v>
@@ -976,18 +979,19 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>62</v>
@@ -996,40 +1000,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
-    <sortCondition ref="B2:B26"/>
-    <sortCondition ref="C2:C26"/>
+  <sortState ref="A2:H18">
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1038,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1450,6 +1433,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A983C-A3AC-4608-88F9-73C0761C34C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449B3FBD-33C5-407F-B234-417C32877969}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>Priority</t>
   </si>
@@ -278,7 +278,16 @@
     <t>Content HyperLinks</t>
   </si>
   <si>
-    <t>on hold</t>
+    <t>Still there in the CPID</t>
+  </si>
+  <si>
+    <t>Still an issue in the SPM</t>
+  </si>
+  <si>
+    <t>Table of Contents</t>
+  </si>
+  <si>
+    <t>Only add a TOC entry if the target exists</t>
   </si>
 </sst>
 </file>
@@ -637,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -767,27 +776,27 @@
     </row>
     <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>63</v>
@@ -799,78 +808,75 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>62</v>
@@ -882,15 +888,18 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
@@ -899,18 +908,18 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -922,15 +931,19 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>62</v>
@@ -939,18 +952,18 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -959,54 +972,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1021,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1393,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1413,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1433,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -1451,6 +1423,69 @@
       </c>
       <c r="F20" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449B3FBD-33C5-407F-B234-417C32877969}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D50F8D-28C7-4711-8457-3C71B08A5296}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="85">
   <si>
     <t>Priority</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Only add a TOC entry if the target exists</t>
+  </si>
+  <si>
+    <t>Missing from CPID</t>
   </si>
 </sst>
 </file>
@@ -646,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -691,7 +694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -711,29 +714,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -745,18 +748,15 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
@@ -768,55 +768,58 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>63</v>
@@ -828,55 +831,55 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>62</v>
@@ -888,18 +891,15 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
@@ -908,18 +908,18 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -931,19 +931,18 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>24</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>62</v>
@@ -955,15 +954,15 @@
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -975,16 +974,60 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H18">
-    <sortCondition ref="B2:B18"/>
-    <sortCondition ref="C2:C18"/>
+  <sortState ref="A2:H17">
+    <sortCondition ref="B2:B17"/>
+    <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1425,7 +1468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>36</v>
       </c>
@@ -1445,7 +1488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
